--- a/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P35A_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46586</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>34996</v>
+        <v>34306</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62976</v>
+        <v>62371</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06744597995736827</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05066666754953597</v>
+        <v>0.04966784119481836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09117532070300768</v>
+        <v>0.09029968151339184</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>60</v>
@@ -762,19 +762,19 @@
         <v>41181</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>32141</v>
+        <v>31709</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53857</v>
+        <v>54706</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05623354413939807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04389026310027061</v>
+        <v>0.04329914433811143</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07354341572148468</v>
+        <v>0.0747035141107126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -783,19 +783,19 @@
         <v>87766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>72053</v>
+        <v>71437</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>107494</v>
+        <v>106526</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.06167586085595154</v>
+        <v>0.06167586085595156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05063349775366457</v>
+        <v>0.05020118002528445</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07553947158245863</v>
+        <v>0.07485911550464147</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>12476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6948</v>
+        <v>6812</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21864</v>
+        <v>20668</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01806265441837707</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01005928115901249</v>
+        <v>0.009862343814582585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03165410574967167</v>
+        <v>0.02992217824676355</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -833,19 +833,19 @@
         <v>12551</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7811</v>
+        <v>7802</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18202</v>
+        <v>19056</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01713874390259212</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01066580803250981</v>
+        <v>0.0106536830891362</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02485603694546255</v>
+        <v>0.02602218609745975</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -854,19 +854,19 @@
         <v>25027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17537</v>
+        <v>16921</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35254</v>
+        <v>34895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01758719361738088</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01232400663264047</v>
+        <v>0.01189059899721277</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02477372046385165</v>
+        <v>0.02452142625873003</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>170798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>151705</v>
+        <v>148335</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>193002</v>
+        <v>195951</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.2472782930407901</v>
+        <v>0.24727829304079</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.219635696615773</v>
+        <v>0.2147579904872357</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2794257228190179</v>
+        <v>0.2836944379320668</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>353</v>
@@ -904,19 +904,19 @@
         <v>193440</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>175074</v>
+        <v>173611</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>212679</v>
+        <v>214787</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2641498921902301</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2390694911034821</v>
+        <v>0.2370718457412918</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2904205526003559</v>
+        <v>0.293299005679578</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>561</v>
@@ -925,19 +925,19 @@
         <v>364238</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>335883</v>
+        <v>333726</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>395707</v>
+        <v>397973</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2559607183499816</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.236034932240738</v>
+        <v>0.2345194572559969</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2780752308249707</v>
+        <v>0.2796677626371069</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>460851</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>435972</v>
+        <v>435504</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>485146</v>
+        <v>488186</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6672130725834646</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6311945196339687</v>
+        <v>0.6305161281968793</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7023867892003497</v>
+        <v>0.7067888489903789</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>803</v>
@@ -975,19 +975,19 @@
         <v>485141</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>464854</v>
+        <v>464010</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>503148</v>
+        <v>507302</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.6624778197677798</v>
+        <v>0.6624778197677796</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6347747569096428</v>
+        <v>0.6336231655648881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6870669170605083</v>
+        <v>0.6927399556497102</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1266</v>
@@ -996,19 +996,19 @@
         <v>945991</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>913418</v>
+        <v>911978</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>979421</v>
+        <v>979794</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6647762271766859</v>
+        <v>0.6647762271766861</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6418861007014171</v>
+        <v>0.640873979874981</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6882684572953864</v>
+        <v>0.6885301458533939</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>95972</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>76936</v>
+        <v>76841</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>118082</v>
+        <v>121256</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09149675292305334</v>
+        <v>0.09149675292305333</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07334795622657125</v>
+        <v>0.0732575834012411</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1125749073022733</v>
+        <v>0.1156006962152967</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -1121,19 +1121,19 @@
         <v>110501</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>91784</v>
+        <v>93322</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>131514</v>
+        <v>133040</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.103190843745614</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.08571223789036354</v>
+        <v>0.08714899681326722</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1228143178657942</v>
+        <v>0.124239090776152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>233</v>
@@ -1142,19 +1142,19 @@
         <v>206473</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>180604</v>
+        <v>180133</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>234594</v>
+        <v>233561</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.09740426400944925</v>
+        <v>0.09740426400944924</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.08520043271604491</v>
+        <v>0.08497845162760731</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1106701613615182</v>
+        <v>0.1101828730508457</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>38305</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27099</v>
+        <v>27083</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52503</v>
+        <v>52992</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03651871949674872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02583536378941002</v>
+        <v>0.0258201845655112</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05005454791831</v>
+        <v>0.05052020772688279</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -1192,19 +1192,19 @@
         <v>47499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36732</v>
+        <v>36917</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>60357</v>
+        <v>60412</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04435665624561236</v>
+        <v>0.04435665624561237</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03430197179091422</v>
+        <v>0.03447498278819416</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05636399353750939</v>
+        <v>0.05641548160743875</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -1213,19 +1213,19 @@
         <v>85804</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>69464</v>
+        <v>69597</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>103831</v>
+        <v>106182</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04047821484708864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0327699130667203</v>
+        <v>0.0328323831084632</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04898234285224637</v>
+        <v>0.05009181996831467</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>254157</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>224925</v>
+        <v>223220</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>287045</v>
+        <v>285028</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2423042426819934</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2144353304458101</v>
+        <v>0.2128100606592306</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2736582453024528</v>
+        <v>0.2717354509029279</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>416</v>
@@ -1263,19 +1263,19 @@
         <v>284252</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>260401</v>
+        <v>261684</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>312090</v>
+        <v>309293</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2654484807460107</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.243174822068476</v>
+        <v>0.2443728636019842</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2914444528354551</v>
+        <v>0.28883278264303</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>668</v>
@@ -1284,19 +1284,19 @@
         <v>538409</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>503307</v>
+        <v>500209</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>577283</v>
+        <v>578955</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2539960317251906</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.23743652637754</v>
+        <v>0.2359750769473907</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.272334989396696</v>
+        <v>0.273123685499605</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>660482</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>621847</v>
+        <v>622658</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>692449</v>
+        <v>694771</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6296802848982046</v>
+        <v>0.6296802848982045</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5928464186037026</v>
+        <v>0.5936201713697193</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6601565153672465</v>
+        <v>0.6623696186742314</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>892</v>
@@ -1334,19 +1334,19 @@
         <v>628586</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>596814</v>
+        <v>598712</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>655724</v>
+        <v>653760</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.587004019262763</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5573334981703193</v>
+        <v>0.5591057249066432</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6123468852631778</v>
+        <v>0.6105121377620603</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1477</v>
@@ -1355,19 +1355,19 @@
         <v>1289069</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1242056</v>
+        <v>1241101</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1335447</v>
+        <v>1333249</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.6081214894182715</v>
+        <v>0.6081214894182716</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5859432906091964</v>
+        <v>0.5854925985378425</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6300004023237697</v>
+        <v>0.6289639252596098</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>91899</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>72937</v>
+        <v>72445</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>117408</v>
+        <v>117695</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1144343272817698</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09082279018922612</v>
+        <v>0.09020956861338857</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.146198761656324</v>
+        <v>0.146555218995939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -1480,19 +1480,19 @@
         <v>64322</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>49997</v>
+        <v>50030</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81877</v>
+        <v>81210</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07924733099508043</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06159865737964242</v>
+        <v>0.0616386778569278</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.100875360981894</v>
+        <v>0.1000544135866555</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>141</v>
@@ -1501,19 +1501,19 @@
         <v>156221</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130984</v>
+        <v>131211</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>186855</v>
+        <v>185431</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09674724053549442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08111803001321503</v>
+        <v>0.08125817845381014</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.115718600479439</v>
+        <v>0.114836700202047</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>19388</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11027</v>
+        <v>11175</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>33294</v>
+        <v>31214</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02414246162982619</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01373084288610934</v>
+        <v>0.01391588333011219</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04145846562449213</v>
+        <v>0.0388687067483101</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>24</v>
@@ -1551,19 +1551,19 @@
         <v>19970</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>13243</v>
+        <v>13062</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>29445</v>
+        <v>29783</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02460381900032009</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01631569092537628</v>
+        <v>0.01609321283093802</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.03627727206113026</v>
+        <v>0.03669321019714845</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>41</v>
@@ -1572,19 +1572,19 @@
         <v>39358</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>27894</v>
+        <v>28021</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>54957</v>
+        <v>53202</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.02437436741020239</v>
+        <v>0.02437436741020238</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01727475561582958</v>
+        <v>0.01735301552408637</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.03403465171715478</v>
+        <v>0.0329477302726876</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>175655</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>152568</v>
+        <v>152664</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203062</v>
+        <v>199457</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2187281650512637</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1899798292542867</v>
+        <v>0.1900995442301742</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2528567436554433</v>
+        <v>0.2483675111713285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>283</v>
@@ -1622,19 +1622,19 @@
         <v>202651</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>181760</v>
+        <v>181651</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>226968</v>
+        <v>223756</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.249673336157713</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2239355128137437</v>
+        <v>0.2238015516750044</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2796330922006184</v>
+        <v>0.2756754829789617</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>456</v>
@@ -1643,19 +1643,19 @@
         <v>378305</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>345213</v>
+        <v>346752</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>411480</v>
+        <v>412825</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2342830570141548</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2137893571849668</v>
+        <v>0.2147422401395064</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2548277904417063</v>
+        <v>0.2556610092756773</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>516131</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>483846</v>
+        <v>484277</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>547191</v>
+        <v>543223</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6426950460371403</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6024926838791426</v>
+        <v>0.6030302517824412</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6813714706699282</v>
+        <v>0.6764304520079392</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>667</v>
@@ -1693,19 +1693,19 @@
         <v>524720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>497682</v>
+        <v>499064</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>549230</v>
+        <v>549084</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6464755138468865</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6131637094118119</v>
+        <v>0.6148656732968961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6766728415135167</v>
+        <v>0.6764919728951744</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1084</v>
@@ -1714,19 +1714,19 @@
         <v>1040851</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1001022</v>
+        <v>999181</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1078914</v>
+        <v>1081315</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6445953350401483</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6199295092795153</v>
+        <v>0.6187892489535834</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.668167152900333</v>
+        <v>0.6696543392443065</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>63163</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>48598</v>
+        <v>48600</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>81530</v>
+        <v>82053</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.06379696491347518</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04908595164362889</v>
+        <v>0.04908804835589922</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08234885258438461</v>
+        <v>0.08287688565213802</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -1839,19 +1839,19 @@
         <v>51229</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>40212</v>
+        <v>40152</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>66855</v>
+        <v>67133</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0457793596922647</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03593442345910208</v>
+        <v>0.035880310004007</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05974343037224948</v>
+        <v>0.05999113588241184</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>129</v>
@@ -1860,19 +1860,19 @@
         <v>114392</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>96454</v>
+        <v>94363</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>136095</v>
+        <v>136601</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.05423724210192644</v>
+        <v>0.05423724210192643</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0457322183448769</v>
+        <v>0.04474067302413354</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06452724925170458</v>
+        <v>0.06476720519944562</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>28399</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20065</v>
+        <v>19744</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>40537</v>
+        <v>41152</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0286841721182684</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0202659813692535</v>
+        <v>0.01994190760646775</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04094358087401446</v>
+        <v>0.04156534965273231</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>49</v>
@@ -1910,19 +1910,19 @@
         <v>34294</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>26136</v>
+        <v>26006</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>45783</v>
+        <v>44978</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03064611099006179</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.02335527331005467</v>
+        <v>0.02323960029362373</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04091310865040634</v>
+        <v>0.04019303409571355</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>82</v>
@@ -1931,19 +1931,19 @@
         <v>62693</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>49534</v>
+        <v>49475</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>76751</v>
+        <v>78690</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02972513131108434</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0234857336997922</v>
+        <v>0.02345762331318791</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03639046174714765</v>
+        <v>0.03730985475766965</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>245927</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>221106</v>
+        <v>218543</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>275576</v>
+        <v>273572</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2483957166563193</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2233252293709765</v>
+        <v>0.2207366435022784</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2783420435573696</v>
+        <v>0.2763176035113428</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>424</v>
@@ -1981,19 +1981,19 @@
         <v>281528</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>258177</v>
+        <v>257684</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>307122</v>
+        <v>307165</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2515800327195558</v>
+        <v>0.2515800327195559</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2307127747975355</v>
+        <v>0.2302725340600233</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2744509871826353</v>
+        <v>0.2744892042974836</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>725</v>
@@ -2002,19 +2002,19 @@
         <v>527456</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>493248</v>
+        <v>490424</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>566702</v>
+        <v>564235</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2500852407931379</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2338660800919896</v>
+        <v>0.23252715798936</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2686933954419488</v>
+        <v>0.2675234760961472</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>652573</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>622436</v>
+        <v>622951</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>682609</v>
+        <v>681735</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6591231463119371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6286838085602593</v>
+        <v>0.629203601848155</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6894611940159827</v>
+        <v>0.6885776443477514</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1022</v>
@@ -2052,19 +2052,19 @@
         <v>751989</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>724274</v>
+        <v>724114</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>778063</v>
+        <v>778670</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6719944965981178</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6472270137256434</v>
+        <v>0.6470839887088748</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6952946825447773</v>
+        <v>0.6958370957236909</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1632</v>
@@ -2073,19 +2073,19 @@
         <v>1404563</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1364162</v>
+        <v>1361543</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1443286</v>
+        <v>1446949</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6659523857938514</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.646796992076525</v>
+        <v>0.6455551554007739</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6843124722885889</v>
+        <v>0.6860489271068181</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>297620</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>264872</v>
+        <v>262274</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>335238</v>
+        <v>335890</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.08424574984161104</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07497585649583571</v>
+        <v>0.07424046541218447</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0948940809730015</v>
+        <v>0.09507847592093716</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>342</v>
@@ -2198,19 +2198,19 @@
         <v>267232</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>241076</v>
+        <v>239380</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>300048</v>
+        <v>297336</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0715700887154652</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06456497772758174</v>
+        <v>0.06411075012064152</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.08035875472720545</v>
+        <v>0.07963244599481598</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>608</v>
@@ -2219,19 +2219,19 @@
         <v>564853</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>519471</v>
+        <v>515163</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>611546</v>
+        <v>610620</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07773252946257569</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0714873087712385</v>
+        <v>0.07089446198075686</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08415828443588036</v>
+        <v>0.08403079886359258</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>98568</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>80952</v>
+        <v>79121</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>122482</v>
+        <v>121258</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0279012385636864</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02291478655704165</v>
+        <v>0.02239643120053146</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0346703391859377</v>
+        <v>0.03432393369947224</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>159</v>
@@ -2269,19 +2269,19 @@
         <v>114314</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>96186</v>
+        <v>98016</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>132363</v>
+        <v>132681</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03061554136673065</v>
+        <v>0.03061554136673066</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02576054390972561</v>
+        <v>0.02625064747338164</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03544940549438344</v>
+        <v>0.03553448397359127</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>260</v>
@@ -2290,19 +2290,19 @@
         <v>212882</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>186767</v>
+        <v>185633</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240257</v>
+        <v>240847</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.0292959470649412</v>
+        <v>0.02929594706494119</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02570200606029681</v>
+        <v>0.0255460468893374</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03306317641252341</v>
+        <v>0.0331443668748887</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>846536</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>789061</v>
+        <v>792674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>898571</v>
+        <v>898991</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2396245410183975</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2233551529178308</v>
+        <v>0.2243780164490758</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2543536004030308</v>
+        <v>0.2544726399788831</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1476</v>
@@ -2340,19 +2340,19 @@
         <v>961872</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>915187</v>
+        <v>916641</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1008867</v>
+        <v>1007055</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.2576082088286336</v>
+        <v>0.2576082088286337</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2451052359550338</v>
+        <v>0.2454945620089546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2701945947822679</v>
+        <v>0.2697093077685506</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2410</v>
@@ -2361,19 +2361,19 @@
         <v>1808408</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1738680</v>
+        <v>1737677</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1878561</v>
+        <v>1887439</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2488652102431235</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2392695391154132</v>
+        <v>0.2391314305346858</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2585193848208021</v>
+        <v>0.2597410414877781</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>2290037</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2227445</v>
+        <v>2230477</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>2350975</v>
+        <v>2354681</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.6482284705763052</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6305108853647835</v>
+        <v>0.6313692233908293</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6654779175697674</v>
+        <v>0.6665270050377792</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>3384</v>
@@ -2411,19 +2411,19 @@
         <v>2390437</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2337215</v>
+        <v>2337872</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>2440845</v>
+        <v>2438149</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6402061610891705</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6259521665587676</v>
+        <v>0.6261281954963321</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6537063872769995</v>
+        <v>0.6529842647097274</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>5459</v>
@@ -2432,19 +2432,19 @@
         <v>4680474</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4592283</v>
+        <v>4595075</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4759228</v>
+        <v>4758270</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6441063132293595</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6319698091666971</v>
+        <v>0.6323540796863325</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.6549440606433727</v>
+        <v>0.6548123123544214</v>
       </c>
     </row>
     <row r="28">
